--- a/ColdClimateAir-SourceHeatPumpSpecificationListing-Updated 7.14.17_1.xlsx
+++ b/ColdClimateAir-SourceHeatPumpSpecificationListing-Updated 7.14.17_1.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brad/GitHub/HPAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C3CBD2-6E17-6241-B965-5CFBF76EBB4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1180" windowWidth="24340" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="33540" yWindow="5880" windowWidth="24340" windowHeight="14820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColdClimateAir-SourceHeatPumpSp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2063,7 +2070,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2073,7 +2080,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2083,6 +2090,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,13 +2112,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2115,6 +2131,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2382,11 +2401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EA448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="AG330" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="AQ350" sqref="AQ350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23802,137 +23824,137 @@
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="169" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="6">
         <v>8849458</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="6">
         <v>12</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="6">
         <v>20</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="6">
         <v>12.5</v>
       </c>
-      <c r="K169" s="2">
+      <c r="K169" s="7">
         <v>10900</v>
       </c>
-      <c r="L169" t="s">
+      <c r="L169" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="N169" t="s">
+      <c r="N169" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O169" t="s">
+      <c r="O169" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Q169" s="2">
+      <c r="Q169" s="7">
         <v>4446</v>
       </c>
-      <c r="R169" s="2">
+      <c r="R169" s="7">
         <v>13679</v>
       </c>
-      <c r="S169" s="2">
+      <c r="S169" s="7">
         <v>18766</v>
       </c>
-      <c r="T169">
+      <c r="T169" s="6">
         <v>0.24</v>
       </c>
-      <c r="U169">
+      <c r="U169" s="6">
         <v>1.03</v>
       </c>
-      <c r="V169">
+      <c r="V169" s="6">
         <v>1.56</v>
       </c>
-      <c r="W169">
+      <c r="W169" s="6">
         <v>5.43</v>
       </c>
-      <c r="X169">
+      <c r="X169" s="6">
         <v>3.91</v>
       </c>
-      <c r="Y169">
+      <c r="Y169" s="6">
         <v>3.52</v>
       </c>
-      <c r="AA169" s="2">
+      <c r="AA169" s="7">
         <v>2893</v>
       </c>
-      <c r="AB169" s="2">
+      <c r="AB169" s="7">
         <v>8902</v>
       </c>
-      <c r="AC169" s="2">
+      <c r="AC169" s="7">
         <v>15388</v>
       </c>
-      <c r="AD169">
+      <c r="AD169" s="6">
         <v>0.21</v>
       </c>
-      <c r="AE169">
+      <c r="AE169" s="6">
         <v>0.9</v>
       </c>
-      <c r="AF169">
+      <c r="AF169" s="6">
         <v>1.79</v>
       </c>
-      <c r="AG169">
+      <c r="AG169" s="6">
         <v>4.04</v>
       </c>
-      <c r="AH169">
+      <c r="AH169" s="6">
         <v>2.92</v>
       </c>
-      <c r="AI169">
+      <c r="AI169" s="6">
         <v>2.52</v>
       </c>
-      <c r="AK169" s="2">
+      <c r="AK169" s="7">
         <v>2262</v>
       </c>
-      <c r="AM169" s="2">
+      <c r="AM169" s="7">
         <v>14330</v>
       </c>
-      <c r="AN169">
+      <c r="AN169" s="6">
         <v>0.2</v>
       </c>
-      <c r="AP169">
+      <c r="AP169" s="6">
         <v>1.86</v>
       </c>
-      <c r="AQ169">
+      <c r="AQ169" s="6">
         <v>3.37</v>
       </c>
-      <c r="AS169">
+      <c r="AS169" s="6">
         <v>2.2599999999999998</v>
       </c>
-      <c r="AU169" s="1">
+      <c r="AU169" s="8">
         <v>0.76</v>
       </c>
-      <c r="AV169" s="1">
+      <c r="AV169" s="8">
         <v>0.93</v>
       </c>
-      <c r="AX169" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB169" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD169" t="s">
+      <c r="AX169" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB169" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD169" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -27583,155 +27605,155 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="195" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="195" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="6">
         <v>5063326</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="6">
         <v>12</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="6">
         <v>25</v>
       </c>
-      <c r="J195">
+      <c r="J195" s="6">
         <v>13.8</v>
       </c>
-      <c r="K195" s="2">
+      <c r="K195" s="7">
         <v>12000</v>
       </c>
-      <c r="L195" t="s">
+      <c r="L195" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="N195" t="s">
+      <c r="N195" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O195" t="s">
+      <c r="O195" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Q195" s="2">
+      <c r="Q195" s="7">
         <v>3100</v>
       </c>
-      <c r="R195" s="2">
+      <c r="R195" s="7">
         <v>16000</v>
       </c>
-      <c r="S195" s="2">
+      <c r="S195" s="7">
         <v>22110</v>
       </c>
-      <c r="T195">
+      <c r="T195" s="6">
         <v>0.2</v>
       </c>
-      <c r="U195">
+      <c r="U195" s="6">
         <v>1.2</v>
       </c>
-      <c r="V195">
+      <c r="V195" s="6">
         <v>2</v>
       </c>
-      <c r="W195">
+      <c r="W195" s="6">
         <v>4.5</v>
       </c>
-      <c r="X195">
+      <c r="X195" s="6">
         <v>3.91</v>
       </c>
-      <c r="Y195">
+      <c r="Y195" s="6">
         <v>3.24</v>
       </c>
-      <c r="AA195" s="2">
+      <c r="AA195" s="7">
         <v>2491</v>
       </c>
-      <c r="AB195" s="2">
+      <c r="AB195" s="7">
         <v>10200</v>
       </c>
-      <c r="AC195" s="2">
+      <c r="AC195" s="7">
         <v>17900</v>
       </c>
-      <c r="AD195">
+      <c r="AD195" s="6">
         <v>0.2</v>
       </c>
-      <c r="AE195">
+      <c r="AE195" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF195">
+      <c r="AF195" s="6">
         <v>2</v>
       </c>
-      <c r="AG195">
+      <c r="AG195" s="6">
         <v>3.65</v>
       </c>
-      <c r="AH195">
+      <c r="AH195" s="6">
         <v>2.72</v>
       </c>
-      <c r="AI195">
+      <c r="AI195" s="6">
         <v>2.63</v>
       </c>
-      <c r="AK195" s="2">
+      <c r="AK195" s="7">
         <v>2320</v>
       </c>
-      <c r="AM195" s="2">
+      <c r="AM195" s="7">
         <v>16500</v>
       </c>
-      <c r="AN195">
+      <c r="AN195" s="6">
         <v>0.21</v>
       </c>
-      <c r="AP195">
+      <c r="AP195" s="6">
         <v>2.1</v>
       </c>
-      <c r="AQ195">
+      <c r="AQ195" s="6">
         <v>3.24</v>
       </c>
-      <c r="AS195">
+      <c r="AS195" s="6">
         <v>2.34</v>
       </c>
-      <c r="AU195" s="1">
+      <c r="AU195" s="8">
         <v>0.75</v>
       </c>
-      <c r="AV195" s="1">
+      <c r="AV195" s="8">
         <v>0.92</v>
       </c>
-      <c r="AX195" t="s">
-        <v>71</v>
-      </c>
-      <c r="BB195">
+      <c r="AX195" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB195" s="6">
         <v>-5</v>
       </c>
-      <c r="BC195" s="2">
+      <c r="BC195" s="7">
         <v>2081</v>
       </c>
-      <c r="BD195" t="s">
+      <c r="BD195" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="BE195" s="2">
+      <c r="BE195" s="7">
         <v>15000</v>
       </c>
-      <c r="BF195">
+      <c r="BF195" s="6">
         <v>0.21</v>
       </c>
-      <c r="BH195">
+      <c r="BH195" s="6">
         <v>2.1</v>
       </c>
-      <c r="BI195">
+      <c r="BI195" s="6">
         <v>2.9</v>
       </c>
-      <c r="BK195">
+      <c r="BK195" s="6">
         <v>2.1</v>
       </c>
     </row>
@@ -47216,143 +47238,143 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="332" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+    <row r="332" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="D332">
+      <c r="D332" s="6">
         <v>4908219</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E332" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="G332" t="s">
+      <c r="G332" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H332">
+      <c r="H332" s="6">
         <v>10</v>
       </c>
-      <c r="I332">
+      <c r="I332" s="6">
         <v>26</v>
       </c>
-      <c r="J332">
+      <c r="J332" s="6">
         <v>15.5</v>
       </c>
-      <c r="K332" s="2">
+      <c r="K332" s="7">
         <v>9000</v>
       </c>
-      <c r="L332" t="s">
+      <c r="L332" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M332" t="s">
+      <c r="M332" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="N332" t="s">
+      <c r="N332" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O332" t="s">
+      <c r="O332" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Q332" s="2">
+      <c r="Q332" s="7">
         <v>3000</v>
       </c>
-      <c r="R332" s="2">
+      <c r="R332" s="7">
         <v>10900</v>
       </c>
-      <c r="S332" s="2">
+      <c r="S332" s="7">
         <v>18000</v>
       </c>
-      <c r="T332">
+      <c r="T332" s="6">
         <v>0.15</v>
       </c>
-      <c r="U332">
+      <c r="U332" s="6">
         <v>0.71</v>
       </c>
-      <c r="V332">
+      <c r="V332" s="6">
         <v>2.25</v>
       </c>
-      <c r="W332">
+      <c r="W332" s="6">
         <v>5.0599999999999996</v>
       </c>
-      <c r="X332">
+      <c r="X332" s="6">
         <v>4.5</v>
       </c>
-      <c r="Y332">
+      <c r="Y332" s="6">
         <v>2.34</v>
       </c>
-      <c r="AA332" s="2">
+      <c r="AA332" s="7">
         <v>1700</v>
       </c>
-      <c r="AB332" s="2">
+      <c r="AB332" s="7">
         <v>6700</v>
       </c>
-      <c r="AC332" s="2">
+      <c r="AC332" s="7">
         <v>12500</v>
       </c>
-      <c r="AD332">
+      <c r="AD332" s="6">
         <v>0.11</v>
       </c>
-      <c r="AE332">
+      <c r="AE332" s="6">
         <v>0.65</v>
       </c>
-      <c r="AF332">
+      <c r="AF332" s="6">
         <v>1.73</v>
       </c>
-      <c r="AG332">
+      <c r="AG332" s="6">
         <v>4.53</v>
       </c>
-      <c r="AH332">
+      <c r="AH332" s="6">
         <v>3.02</v>
       </c>
-      <c r="AI332">
+      <c r="AI332" s="6">
         <v>2.12</v>
       </c>
-      <c r="AK332" s="2">
+      <c r="AK332" s="7">
         <v>1200</v>
       </c>
-      <c r="AM332" s="2">
+      <c r="AM332" s="7">
         <v>10900</v>
       </c>
-      <c r="AN332">
+      <c r="AN332" s="6">
         <v>0.08</v>
       </c>
-      <c r="AP332">
+      <c r="AP332" s="6">
         <v>1.46</v>
       </c>
-      <c r="AQ332">
+      <c r="AQ332" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AS332">
+      <c r="AS332" s="6">
         <v>2.19</v>
       </c>
-      <c r="AU332" s="1">
+      <c r="AU332" s="8">
         <v>0.61</v>
       </c>
-      <c r="AV332" s="1">
+      <c r="AV332" s="8">
         <v>0.87</v>
       </c>
-      <c r="AX332" t="s">
+      <c r="AX332" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="AY332" t="s">
+      <c r="AY332" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="AZ332" t="s">
+      <c r="AZ332" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="BB332" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD332" t="s">
+      <c r="BB332" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD332" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -49961,158 +49983,158 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="350" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
+    <row r="350" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="6">
         <v>8854557</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E350" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="F350" t="s">
+      <c r="F350" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="G350" t="s">
+      <c r="G350" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H350">
+      <c r="H350" s="6">
         <v>13</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="6">
         <v>28.2</v>
       </c>
-      <c r="J350">
+      <c r="J350" s="6">
         <v>15.8</v>
       </c>
-      <c r="K350" s="2">
+      <c r="K350" s="7">
         <v>9000</v>
       </c>
-      <c r="L350" t="s">
+      <c r="L350" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M350" t="s">
+      <c r="M350" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="N350" t="s">
+      <c r="N350" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="O350" t="s">
+      <c r="O350" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Q350" s="2">
+      <c r="Q350" s="7">
         <v>2900</v>
       </c>
-      <c r="R350" s="2">
+      <c r="R350" s="7">
         <v>11000</v>
       </c>
-      <c r="S350" s="2">
+      <c r="S350" s="7">
         <v>19000</v>
       </c>
-      <c r="T350">
+      <c r="T350" s="6">
         <v>0.27</v>
       </c>
-      <c r="U350">
+      <c r="U350" s="6">
         <v>0.75</v>
       </c>
-      <c r="V350">
+      <c r="V350" s="6">
         <v>2.37</v>
       </c>
-      <c r="W350">
+      <c r="W350" s="6">
         <v>3.15</v>
       </c>
-      <c r="X350">
+      <c r="X350" s="6">
         <v>4.3</v>
       </c>
-      <c r="Y350">
+      <c r="Y350" s="6">
         <v>2.35</v>
       </c>
-      <c r="AA350" s="2">
+      <c r="AA350" s="7">
         <v>1650</v>
       </c>
-      <c r="AB350" s="2">
+      <c r="AB350" s="7">
         <v>7500</v>
       </c>
-      <c r="AC350" s="2">
+      <c r="AC350" s="7">
         <v>13400</v>
       </c>
-      <c r="AD350">
+      <c r="AD350" s="6">
         <v>0.2</v>
       </c>
-      <c r="AE350">
+      <c r="AE350" s="6">
         <v>0.8</v>
       </c>
-      <c r="AF350">
+      <c r="AF350" s="6">
         <v>1.86</v>
       </c>
-      <c r="AG350">
+      <c r="AG350" s="6">
         <v>2.42</v>
       </c>
-      <c r="AH350">
+      <c r="AH350" s="6">
         <v>2.75</v>
       </c>
-      <c r="AI350">
+      <c r="AI350" s="6">
         <v>2.11</v>
       </c>
-      <c r="AK350" s="2">
+      <c r="AK350" s="7">
         <v>1150</v>
       </c>
-      <c r="AM350" s="2">
+      <c r="AM350" s="7">
         <v>11000</v>
       </c>
-      <c r="AN350">
+      <c r="AN350" s="6">
         <v>0.15</v>
       </c>
-      <c r="AP350">
+      <c r="AP350" s="6">
         <v>1.6</v>
       </c>
-      <c r="AQ350">
+      <c r="AQ350" s="6">
         <v>2.25</v>
       </c>
-      <c r="AS350">
+      <c r="AS350" s="6">
         <v>2.0099999999999998</v>
       </c>
-      <c r="AU350" s="1">
+      <c r="AU350" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AV350" s="1">
+      <c r="AV350" s="8">
         <v>0.82</v>
       </c>
-      <c r="AX350" t="s">
+      <c r="AX350" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AY350" t="s">
+      <c r="AY350" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="BB350">
+      <c r="BB350" s="6">
         <v>-13</v>
       </c>
-      <c r="BC350">
+      <c r="BC350" s="6">
         <v>420</v>
       </c>
-      <c r="BD350" t="s">
+      <c r="BD350" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="BE350" s="2">
+      <c r="BE350" s="7">
         <v>7000</v>
       </c>
-      <c r="BF350">
+      <c r="BF350" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BH350">
+      <c r="BH350" s="6">
         <v>1.27</v>
       </c>
-      <c r="BI350">
+      <c r="BI350" s="6">
         <v>1.76</v>
       </c>
-      <c r="BK350">
+      <c r="BK350" s="6">
         <v>1.62</v>
       </c>
     </row>
